--- a/data/trans_dic/P70C1_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2333917515846389</v>
+        <v>0.2358119813979963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3721739251946776</v>
+        <v>0.3653033311103728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3229768992485064</v>
+        <v>0.3213230331346001</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3872157034630673</v>
+        <v>0.3903183554373841</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5168910977980693</v>
+        <v>0.518995831390766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4317363576251188</v>
+        <v>0.4294649813166231</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.3157168857361234</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3643484384818278</v>
+        <v>0.3643484384818279</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3359199067650102</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2664270983639159</v>
+        <v>0.2716717732210301</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3205066256013238</v>
+        <v>0.3199725788857485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3027292382119651</v>
+        <v>0.3005855554482734</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3617905247881438</v>
+        <v>0.367792869869438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4096491625694496</v>
+        <v>0.414936608184833</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3705537742793199</v>
+        <v>0.3700317447188085</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1080643670759855</v>
+        <v>0.1077214324240976</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1727308950307264</v>
+        <v>0.168406542238427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1433150124390369</v>
+        <v>0.1443785237766882</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1682039227532608</v>
+        <v>0.1720994393150833</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2359787316621514</v>
+        <v>0.2336640653676722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1876052519643684</v>
+        <v>0.1873016744080701</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1128809094928558</v>
+        <v>0.1102390121047407</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1451958725352358</v>
+        <v>0.1461275719296839</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1361884566253393</v>
+        <v>0.1347412708207045</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1833653763843923</v>
+        <v>0.1819363656193304</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2098679331217712</v>
+        <v>0.2102213643083796</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1831153162246933</v>
+        <v>0.1824781744861675</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2016418413287084</v>
+        <v>0.2016418413287083</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.2615686653469069</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1817416157186946</v>
+        <v>0.1824444927903784</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2418277185333477</v>
+        <v>0.239298021665822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2124642021242583</v>
+        <v>0.2138177426410272</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2266267519720604</v>
+        <v>0.2264188859849273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2821122899535491</v>
+        <v>0.2859671219480039</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2435783879650897</v>
+        <v>0.2440802521674089</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40973</v>
+        <v>41398</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>63827</v>
+        <v>62648</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>112090</v>
+        <v>111516</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67978</v>
+        <v>68522</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88645</v>
+        <v>89006</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>149835</v>
+        <v>149047</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>135095</v>
+        <v>137754</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>115494</v>
+        <v>115302</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>262591</v>
+        <v>260731</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>183450</v>
+        <v>186494</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>147617</v>
+        <v>149522</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>321422</v>
+        <v>320970</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67671</v>
+        <v>67456</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>84248</v>
+        <v>82139</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>159645</v>
+        <v>160830</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>105330</v>
+        <v>107770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>115096</v>
+        <v>113967</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>208982</v>
+        <v>208644</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66771</v>
+        <v>65208</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>67394</v>
+        <v>67826</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>143771</v>
+        <v>142243</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>108464</v>
+        <v>107619</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>97411</v>
+        <v>97576</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>193310</v>
+        <v>192638</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>345371</v>
+        <v>346707</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>358810</v>
+        <v>355057</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>718997</v>
+        <v>723577</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>430668</v>
+        <v>430273</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>418582</v>
+        <v>424301</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>824290</v>
+        <v>825988</v>
       </c>
     </row>
     <row r="24">
